--- a/results/gurobi_cplex_comparison/seed_40_k_50.xlsx
+++ b/results/gurobi_cplex_comparison/seed_40_k_50.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.055</v>
+        <v>1.611</v>
       </c>
       <c r="F2">
-        <v>0.045</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.044</v>
+        <v>2.251</v>
       </c>
       <c r="F3">
-        <v>0.055</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.035</v>
+        <v>3.158</v>
       </c>
       <c r="F4">
-        <v>0.063</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.067</v>
+        <v>3.999</v>
       </c>
       <c r="F5">
-        <v>0.062</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05</v>
+        <v>5.112</v>
       </c>
       <c r="F6">
-        <v>0.077</v>
+        <v>1.176</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.061</v>
+        <v>6.214</v>
       </c>
       <c r="F7">
-        <v>0.067</v>
+        <v>1.462</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.093</v>
+        <v>7.607</v>
       </c>
       <c r="F8">
-        <v>0.093</v>
+        <v>1.817</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.067</v>
+        <v>8.958</v>
       </c>
       <c r="F9">
-        <v>0.103</v>
+        <v>2.172</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.062</v>
+        <v>10.723</v>
       </c>
       <c r="F10">
-        <v>0.097</v>
+        <v>2.567</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.083</v>
+        <v>12.138</v>
       </c>
       <c r="F11">
-        <v>44.185</v>
+        <v>36.994</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.126</v>
+        <v>14.047</v>
       </c>
       <c r="F12">
-        <v>136.38</v>
+        <v>14.746</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.122</v>
+        <v>15.98</v>
       </c>
       <c r="F13">
-        <v>146.211</v>
+        <v>17.208</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.157</v>
+        <v>18.18</v>
       </c>
       <c r="F14">
-        <v>81.517</v>
+        <v>16.264</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.136</v>
+        <v>20.141</v>
       </c>
       <c r="F15">
-        <v>49.413</v>
+        <v>20.676</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.149</v>
+        <v>22.485</v>
       </c>
       <c r="F16">
-        <v>116.036</v>
+        <v>14.536</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.184</v>
+        <v>25.184</v>
       </c>
       <c r="F17">
-        <v>71.376</v>
+        <v>41.799</v>
       </c>
     </row>
   </sheetData>
